--- a/Consultorios juridicos.xlsx
+++ b/Consultorios juridicos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tic.tank\Dropbox\CursoDesarrolloApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tic.tank\Documents\GitHub\AlmaMaterAPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1144,12 +1144,12 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
